--- a/Excel/属性模拟.xlsx
+++ b/Excel/属性模拟.xlsx
@@ -23,80 +23,80 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="198">
   <si>
     <t>sheet名</t>
   </si>
   <si>
     <t>导出客户端文件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>导出服务端文件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>主键</t>
   </si>
   <si>
     <t>是否导出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>屏蔽字段</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>表注释</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>常驻内存</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>cardId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>lv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>bklv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>star</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>位置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>卡牌ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>突破</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>星级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>常服曹焱兵</t>
@@ -118,42 +118,42 @@
   </si>
   <si>
     <t>card_id:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>relic[1].lv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>relic[1].md[1].lv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>relic[1].md[2].lv</t>
   </si>
   <si>
     <t>relic[2].lv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>relic[2].md[1].lv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>relic[2].md[2].lv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>relic[3].lv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>relic[3].md[1].lv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>relic[3].md[2].lv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>relic[3].md[3].lv</t>
@@ -163,43 +163,43 @@
   </si>
   <si>
     <t>relic[4].lv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>relic[4].md[1].lv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>relic[4].md[2].lv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>relic[4].md[3].lv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>relic[4].md[4].lv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>relic[5].lv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>relic[5].md[1].lv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>relic[5].md[2].lv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>relic[5].md[3].lv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>relic[5].md[4].lv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>relic[5].md[5].lv</t>
@@ -209,171 +209,171 @@
   </si>
   <si>
     <t>relic[6].lv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>relic[6].md[1].lv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>relic[6].md[2].lv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>relic[6].md[3].lv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>relic[6].md[4].lv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>relic[6].md[5].lv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>relic[6].md[6].lv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器1等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器1模组1等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器1模组2等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器2等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器2模组1等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器2模组2等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器3等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器3模组1等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器3模组2等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器3模组3等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器3模组4等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器4等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器4模组1等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器4模组2等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器4模组3等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器4模组4等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器5等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器5模组1等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器5模组2等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器5模组3等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器5模组4等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器5模组5等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器5模组6等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器6等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器6模组1等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器6模组2等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器6模组3等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器6模组4等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器6模组5等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器6模组6等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>#note</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>关卡2</t>
@@ -392,35 +392,35 @@
   </si>
   <si>
     <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>jlr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>shl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>卡牌组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Atk</t>
@@ -430,7 +430,7 @@
   </si>
   <si>
     <t>HP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Crit</t>
@@ -440,7 +440,7 @@
   </si>
   <si>
     <t>EffectResist</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AtkRate</t>
@@ -453,54 +453,54 @@
   </si>
   <si>
     <t>AtkExt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>HPExt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Block</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DefIgnor</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DefExt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>cardGroup</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
     <t>relic</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>卡牌组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>神器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>关卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>cardGroup.lua</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -516,7 +516,7 @@
       </rPr>
       <t>elicGroup.lua</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -532,51 +532,51 @@
       </rPr>
       <t>evelDesigner.lua</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>group</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>loc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>group,loc,type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>float:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>关卡ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>位置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>HP</t>
@@ -604,19 +604,19 @@
   </si>
   <si>
     <t>lvid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>loc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CritRate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CritRate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>关卡1</t>
@@ -632,43 +632,309 @@
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>bs</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>战力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>bs</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>战斗力和</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#note</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章第1关</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章第2关</t>
+  </si>
+  <si>
+    <t>第一章第3关</t>
+  </si>
+  <si>
+    <t>第一章第4关</t>
+  </si>
+  <si>
+    <t>第一章第5关</t>
+  </si>
+  <si>
+    <t>第一章第6关</t>
+  </si>
+  <si>
+    <t>夏玲出现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹玄亮出现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情用一下李轩辕</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹玄亮升级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情用一下曹焱兵。第一章章节宝箱给1个曹焱兵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>困难第1章</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1关</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>困难第1章</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>困难第1章</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>困难第1章</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>困难第1章</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>困难第1章</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>第一章2个章节宝箱
+第一个宝箱给金币，钻石和突破材料
+第二个宝箱给金币，钻石和曹焱兵
+第二关给曹玄亮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2章第1关</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2章第2关</t>
+  </si>
+  <si>
+    <t>第2章第3关</t>
+  </si>
+  <si>
+    <t>第2章第4关</t>
+  </si>
+  <si>
+    <t>第2章第5关</t>
+  </si>
+  <si>
+    <t>第2章第6关</t>
+  </si>
+  <si>
+    <t>第2章第7关</t>
+  </si>
+  <si>
+    <t>第2章第8关</t>
+  </si>
+  <si>
+    <t>第2章第9关</t>
+  </si>
+  <si>
+    <t>第一章困难2个章节宝箱
+第一个宝箱给
+第二个宝箱给李轩辕</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示曹焱兵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>引到 抽奖，让玩家用曹焱兵战斗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -834,60 +1100,66 @@
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyFont="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="12" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="7">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="7">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1285,7 +1557,7 @@
       <c r="H4" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1296,7 +1568,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:G17"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1696,7 +1968,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
@@ -2724,7 +2996,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
@@ -2732,10 +3004,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2743,9 +3015,11 @@
     <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="12.25" customWidth="1"/>
     <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="46.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>133</v>
       </c>
@@ -2758,8 +3032,14 @@
       <c r="D1" s="5" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -2772,8 +3052,14 @@
       <c r="D2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>100</v>
       </c>
@@ -2786,94 +3072,292 @@
       <c r="D3" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E5" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E6" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E7" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2">
-        <v>5</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E8" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>6</v>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2">
-        <v>7</v>
-      </c>
+      <c r="E9" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="8"/>
+      <c r="E10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="H10" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E16" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E17" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E18" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E19" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E20" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E21" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E22" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E23" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E24" s="2" t="s">
+        <v>194</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <mergeCells count="2">
+    <mergeCell ref="H4:M9"/>
+    <mergeCell ref="H10:M15"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2881,8 +3365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3089,7 +3573,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
